--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/74.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/74.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2052440033822947</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.31084044037036</v>
+        <v>-1.320326372816994</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1701326078571213</v>
+        <v>-0.164044207318032</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1351761364645852</v>
+        <v>-0.1271852932630419</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2379680185770681</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.384494026364341</v>
+        <v>-1.387916379089431</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2389899358724664</v>
+        <v>-0.2316940755621957</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1370683587904029</v>
+        <v>-0.132315902254495</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2609315367802052</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.489269997464131</v>
+        <v>-1.490915471662585</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2837593904839998</v>
+        <v>-0.279183599767092</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1417916143644925</v>
+        <v>-0.1369807559049483</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2519077356110712</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.648266314467906</v>
+        <v>-1.641332546084181</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2914027422399069</v>
+        <v>-0.2908610643981798</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.150883333826581</v>
+        <v>-0.1477690512486727</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2084638039009565</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.744030868750608</v>
+        <v>-1.735673553478246</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2907661612722707</v>
+        <v>-0.2894360574614528</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.165307148916668</v>
+        <v>-0.1670008047021221</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1456650421812574</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.585027251506378</v>
+        <v>-1.576264042864744</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2234126827905615</v>
+        <v>-0.2227060195145617</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1690390318370306</v>
+        <v>-0.1752427761753017</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.0872762822257864</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.423004254810148</v>
+        <v>-1.419621323383513</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.149908021701854</v>
+        <v>-0.1453263907925825</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1507417091617628</v>
+        <v>-0.1535610620253075</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.04632045668749764</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.154094057474675</v>
+        <v>-1.15019718912004</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.009559438915164382</v>
+        <v>-0.003113326593802477</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1264304484000421</v>
+        <v>-0.131756703835677</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.02115691565515558</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.781590527993048</v>
+        <v>-0.7811335329405935</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07696885114444875</v>
+        <v>0.08241045037926546</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1139309766937727</v>
+        <v>-0.1191827696767713</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.001658240745328553</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4011764579548774</v>
+        <v>-0.4088957322115117</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1146001306395295</v>
+        <v>0.1278588273530714</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07083911733869339</v>
+        <v>-0.07452427872014694</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.021720309761585</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07181342133545013</v>
+        <v>0.05864378755545367</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1289786842387984</v>
+        <v>0.1403378583860681</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02926469987018883</v>
+        <v>0.02701330571400761</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.05464516452997598</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6130284278177593</v>
+        <v>0.5982731818110361</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04684513893282048</v>
+        <v>0.06003375333799875</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1844473712605108</v>
+        <v>0.176831760418331</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1011251186120714</v>
       </c>
       <c r="E14" t="n">
-        <v>1.178493373041971</v>
+        <v>1.16096257561443</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.09730394903450446</v>
+        <v>-0.08860498250887043</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3139288161065669</v>
+        <v>0.3056313628059328</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1618633531147135</v>
       </c>
       <c r="E15" t="n">
-        <v>1.824796800915525</v>
+        <v>1.809586019904438</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2614337951259149</v>
+        <v>-0.2596831974649154</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4954157139027</v>
+        <v>0.4879942894566111</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2340466544675254</v>
       </c>
       <c r="E16" t="n">
-        <v>2.458882546364355</v>
+        <v>2.435429793880088</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4974710096945788</v>
+        <v>-0.4970957773352153</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6157952189500313</v>
+        <v>0.6049689623559433</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3155319833686088</v>
       </c>
       <c r="E17" t="n">
-        <v>3.072251669451281</v>
+        <v>3.046195651220924</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6344395811508148</v>
+        <v>-0.6306551364991794</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8017294232310723</v>
+        <v>0.792027403666984</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4041532751539171</v>
       </c>
       <c r="E18" t="n">
-        <v>3.678760026559027</v>
+        <v>3.643527606077309</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7582764800774179</v>
+        <v>-0.7536174666193283</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9409815099014894</v>
+        <v>0.9354172666270364</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4945306377749538</v>
       </c>
       <c r="E19" t="n">
-        <v>4.213485119277247</v>
+        <v>4.178007410716257</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9152345699462848</v>
+        <v>-0.912082326118013</v>
       </c>
       <c r="G19" t="n">
-        <v>1.094623830555903</v>
+        <v>1.087460834621905</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5808272015256609</v>
       </c>
       <c r="E20" t="n">
-        <v>4.757976473675556</v>
+        <v>4.721695738664565</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.131550914951045</v>
+        <v>-1.125976451339955</v>
       </c>
       <c r="G20" t="n">
-        <v>1.253119351064496</v>
+        <v>1.246919986870498</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6582370248025681</v>
       </c>
       <c r="E21" t="n">
-        <v>5.22170672797334</v>
+        <v>5.180213621277805</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.289660982763639</v>
+        <v>-1.28256076889755</v>
       </c>
       <c r="G21" t="n">
-        <v>1.430881666180722</v>
+        <v>1.422655755236542</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7231761142781958</v>
       </c>
       <c r="E22" t="n">
-        <v>5.625398344724868</v>
+        <v>5.585582833285788</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.49479627948822</v>
+        <v>-1.489411622128949</v>
       </c>
       <c r="G22" t="n">
-        <v>1.544631092847236</v>
+        <v>1.539320897940601</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.773087309771747</v>
       </c>
       <c r="E23" t="n">
-        <v>5.901566441120249</v>
+        <v>5.856468475688261</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.677674603114989</v>
+        <v>-1.667724375375446</v>
       </c>
       <c r="G23" t="n">
-        <v>1.707575379888829</v>
+        <v>1.699534895052195</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8072510107026896</v>
       </c>
       <c r="E24" t="n">
-        <v>6.204596502292167</v>
+        <v>6.162253647607724</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.847991402991625</v>
+        <v>-1.840386742510127</v>
       </c>
       <c r="G24" t="n">
-        <v>1.818382809652163</v>
+        <v>1.815097701447618</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8256836335994064</v>
       </c>
       <c r="E25" t="n">
-        <v>6.414158664828383</v>
+        <v>6.376066010136576</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.984400046004998</v>
+        <v>-1.975314896759318</v>
       </c>
       <c r="G25" t="n">
-        <v>1.9182690796955</v>
+        <v>1.918241338781772</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8300758047630172</v>
       </c>
       <c r="E26" t="n">
-        <v>6.511748279224721</v>
+        <v>6.476876490621457</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.088050320026697</v>
+        <v>-2.082694133605199</v>
       </c>
       <c r="G26" t="n">
-        <v>1.983155076903573</v>
+        <v>1.981787011842392</v>
       </c>
     </row>
     <row r="27">
@@ -1054,10 +1054,10 @@
         <v>0.8238257582758086</v>
       </c>
       <c r="E27" t="n">
-        <v>6.566294215852979</v>
+        <v>6.530606260366898</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.176134291327174</v>
+        <v>-2.171486958253811</v>
       </c>
       <c r="G27" t="n">
         <v>2.064268048594006</v>
@@ -1077,13 +1077,13 @@
         <v>0.8106411149904966</v>
       </c>
       <c r="E28" t="n">
-        <v>6.675869365027586</v>
+        <v>6.641750961239231</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.23335284598584</v>
+        <v>-2.232333732418386</v>
       </c>
       <c r="G28" t="n">
-        <v>2.096501530296997</v>
+        <v>2.093975647099725</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.7934743656102432</v>
       </c>
       <c r="E29" t="n">
-        <v>6.612040442637331</v>
+        <v>6.579109057946884</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.294290873156096</v>
+        <v>-2.29293156838346</v>
       </c>
       <c r="G29" t="n">
-        <v>2.13930868027435</v>
+        <v>2.140917653270531</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7735867073232627</v>
       </c>
       <c r="E30" t="n">
-        <v>6.582402926439975</v>
+        <v>6.543152453612076</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.32785372864586</v>
+        <v>-2.328916643656042</v>
       </c>
       <c r="G30" t="n">
-        <v>2.123556221421536</v>
+        <v>2.125909818944081</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7510351021238069</v>
       </c>
       <c r="E31" t="n">
-        <v>6.492992501448907</v>
+        <v>6.454730481178554</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.309437412051183</v>
+        <v>-2.311441328055956</v>
       </c>
       <c r="G31" t="n">
-        <v>2.103483480267723</v>
+        <v>2.110106258408085</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7255018536878928</v>
       </c>
       <c r="E32" t="n">
-        <v>6.314628646519228</v>
+        <v>6.281037320091692</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.316085011009091</v>
+        <v>-2.31732970200659</v>
       </c>
       <c r="G32" t="n">
-        <v>2.044396794076738</v>
+        <v>2.046562045395556</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6969307003723804</v>
       </c>
       <c r="E33" t="n">
-        <v>6.135461765139549</v>
+        <v>6.094965871290105</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.334715954673131</v>
+        <v>-2.341730025701856</v>
       </c>
       <c r="G33" t="n">
-        <v>1.981763651072937</v>
+        <v>1.979980932353938</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6649927400276873</v>
       </c>
       <c r="E34" t="n">
-        <v>5.892835353536614</v>
+        <v>5.857278802378715</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.385477446649753</v>
+        <v>-2.382649333497664</v>
       </c>
       <c r="G34" t="n">
-        <v>1.896079268809869</v>
+        <v>1.897625459738142</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.630027931281703</v>
       </c>
       <c r="E35" t="n">
-        <v>5.669283010193311</v>
+        <v>5.632029883153775</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.372065444886666</v>
+        <v>-2.370822943961303</v>
       </c>
       <c r="G35" t="n">
-        <v>1.82761615377907</v>
+        <v>1.829235347111887</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5926850196030837</v>
       </c>
       <c r="E36" t="n">
-        <v>5.478929240341089</v>
+        <v>5.442482059847736</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.337613420109539</v>
+        <v>-2.330397132420223</v>
       </c>
       <c r="G36" t="n">
-        <v>1.738395535039821</v>
+        <v>1.742150778729638</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5539089209818441</v>
       </c>
       <c r="E37" t="n">
-        <v>5.113746391987278</v>
+        <v>5.081539191149923</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.275292727397193</v>
+        <v>-2.27120751283883</v>
       </c>
       <c r="G37" t="n">
-        <v>1.653079084895662</v>
+        <v>1.653614922545025</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5142585925209792</v>
       </c>
       <c r="E38" t="n">
-        <v>4.845684482592623</v>
+        <v>4.805244070570634</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.173171123726674</v>
+        <v>-2.164934262421813</v>
       </c>
       <c r="G38" t="n">
-        <v>1.557729184270778</v>
+        <v>1.551855410801053</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4741921583154884</v>
       </c>
       <c r="E39" t="n">
-        <v>4.551186942463975</v>
+        <v>4.511038540060167</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.156319248661406</v>
+        <v>-2.146861787152545</v>
       </c>
       <c r="G39" t="n">
-        <v>1.445909941180445</v>
+        <v>1.439076916114992</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4343245900242001</v>
       </c>
       <c r="E40" t="n">
-        <v>4.279048578799502</v>
+        <v>4.243014591915876</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.12750081944305</v>
+        <v>-2.118203963224189</v>
       </c>
       <c r="G40" t="n">
-        <v>1.385882984018916</v>
+        <v>1.385297504734461</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3960024283422422</v>
       </c>
       <c r="E41" t="n">
-        <v>3.980176734590492</v>
+        <v>3.9501756664185</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.037447973291984</v>
+        <v>-2.028369394262713</v>
       </c>
       <c r="G41" t="n">
-        <v>1.265354554066311</v>
+        <v>1.26459678910713</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3598733883352727</v>
       </c>
       <c r="E42" t="n">
-        <v>3.721272246822016</v>
+        <v>3.696555092691022</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.942797435702645</v>
+        <v>-1.933766308236329</v>
       </c>
       <c r="G42" t="n">
-        <v>1.160375636281885</v>
+        <v>1.159439745455613</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3258112977579979</v>
       </c>
       <c r="E43" t="n">
-        <v>3.452957749107633</v>
+        <v>3.424736479558459</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.875583391813618</v>
+        <v>-1.865718576887393</v>
       </c>
       <c r="G43" t="n">
-        <v>1.067380793227637</v>
+        <v>1.065840442491729</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2932024933047895</v>
       </c>
       <c r="E44" t="n">
-        <v>3.184663692066523</v>
+        <v>3.156040909292349</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.834845860005129</v>
+        <v>-1.82584247345254</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9350975160951274</v>
+        <v>0.9313758535114012</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.26136380930856</v>
       </c>
       <c r="E45" t="n">
-        <v>2.924664168229866</v>
+        <v>2.897958428599055</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.748326330234061</v>
+        <v>-1.744011888125426</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8123994546794331</v>
+        <v>0.8119556000597968</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2293748935494832</v>
       </c>
       <c r="E46" t="n">
-        <v>2.673708182268297</v>
+        <v>2.650595620989212</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.698078775185438</v>
+        <v>-1.696288756225984</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7722364517947166</v>
+        <v>0.7702405660544444</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1963199630987185</v>
       </c>
       <c r="E47" t="n">
-        <v>2.372713428135105</v>
+        <v>2.350054941812293</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.650840379252178</v>
+        <v>-1.64952633597036</v>
       </c>
       <c r="G47" t="n">
-        <v>0.663327084549564</v>
+        <v>0.6640089270080184</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.161436813922018</v>
       </c>
       <c r="E48" t="n">
-        <v>2.178687637334248</v>
+        <v>2.159477784602162</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.616647513011187</v>
+        <v>-1.615202065401188</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6007070819785808</v>
+        <v>0.6014706871301261</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1243826544197675</v>
       </c>
       <c r="E49" t="n">
-        <v>1.982855767044937</v>
+        <v>1.961816474054943</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.566835052293655</v>
+        <v>-1.567382570327746</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5387251204233248</v>
+        <v>0.5406626042399606</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.08498003095459343</v>
       </c>
       <c r="E50" t="n">
-        <v>1.868259512485695</v>
+        <v>1.851141908667882</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.491642575611857</v>
+        <v>-1.494726197179856</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4770541491114322</v>
+        <v>0.4794413277400679</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.04308449907515444</v>
       </c>
       <c r="E51" t="n">
-        <v>1.69020810784747</v>
+        <v>1.67377088644002</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.432655172691055</v>
+        <v>-1.438571287555417</v>
       </c>
       <c r="G51" t="n">
-        <v>0.419472772502175</v>
+        <v>0.4205736487627201</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0005677089160828223</v>
       </c>
       <c r="E52" t="n">
-        <v>1.572028895273138</v>
+        <v>1.555455889393234</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.391277409794702</v>
+        <v>-1.399328114967973</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3384065223506513</v>
+        <v>0.3399848343369236</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04524909687946312</v>
       </c>
       <c r="E53" t="n">
-        <v>1.390867588201278</v>
+        <v>1.380152295262099</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.354240369872622</v>
+        <v>-1.36090548940762</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2725306125369417</v>
+        <v>0.272638656095669</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.09019250851633279</v>
       </c>
       <c r="E54" t="n">
-        <v>1.343573710440563</v>
+        <v>1.325940709646659</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.334150108141718</v>
+        <v>-1.341869382398352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2162223978629568</v>
+        <v>0.2224976845576824</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1344049801946046</v>
       </c>
       <c r="E55" t="n">
-        <v>1.218012494718597</v>
+        <v>1.205298395942964</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.299114794152273</v>
+        <v>-1.304771020456453</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1659310413716067</v>
+        <v>0.1634051581743346</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1773934762363308</v>
       </c>
       <c r="E56" t="n">
-        <v>1.188881615208786</v>
+        <v>1.174541022859881</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.244647700120924</v>
+        <v>-1.253151020202376</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1068618757577134</v>
+        <v>0.1020145160958966</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2189701417238532</v>
       </c>
       <c r="E57" t="n">
-        <v>1.099157279878174</v>
+        <v>1.082727358711179</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.238394314147562</v>
+        <v>-1.243467981263469</v>
       </c>
       <c r="G57" t="n">
-        <v>0.06467378617090659</v>
+        <v>0.05843354063036282</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2586718598827787</v>
       </c>
       <c r="E58" t="n">
-        <v>1.04616045427437</v>
+        <v>1.028296765882102</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.20003885079939</v>
+        <v>-1.205722818017298</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01308399500661798</v>
+        <v>-0.0194308240577981</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2960118554704493</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9368597941408542</v>
+        <v>0.9200385800854951</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.113720807664868</v>
+        <v>-1.122326331112684</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08868528515387041</v>
+        <v>-0.09595778469468663</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3309648013115505</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9187040961304045</v>
+        <v>0.8929868090571387</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.095502327586509</v>
+        <v>-1.102980693908143</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1143076691012272</v>
+        <v>-0.123170161013043</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3637258981547969</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7854922284120767</v>
+        <v>0.7605443866827197</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.06446170517379</v>
+        <v>-1.074049840986788</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1426034011030377</v>
+        <v>-0.1527638757676714</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3943722711897122</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7458344021668146</v>
+        <v>0.7218545723217301</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.058960243967246</v>
+        <v>-1.068771767138153</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2193362285207444</v>
+        <v>-0.2266977909951061</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4224693256237561</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6564546381856567</v>
+        <v>0.6302832761561183</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.094078780697873</v>
+        <v>-1.103317965017143</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.233735222793286</v>
+        <v>-0.2423626469624655</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4472413006794351</v>
       </c>
       <c r="E64" t="n">
-        <v>0.572944267529952</v>
+        <v>0.5379031133481431</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.079076786563786</v>
+        <v>-1.089981885754783</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2820263134000912</v>
+        <v>-0.2941899740454516</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4684026524497624</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4900441969762469</v>
+        <v>0.4519325616592572</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.047341181259795</v>
+        <v>-1.057326450153519</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3134655289416282</v>
+        <v>-0.327972566772897</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4863871416595913</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4403280994327148</v>
+        <v>0.4040050230270882</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.063242565017881</v>
+        <v>-1.072632134290515</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3429833211955294</v>
+        <v>-0.3564493447379803</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5018600180895285</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4168797270927211</v>
+        <v>0.3739411727871872</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.080373309268513</v>
+        <v>-1.091785045147056</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3727799826347941</v>
+        <v>-0.3915576611319709</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5142742338329058</v>
       </c>
       <c r="E68" t="n">
-        <v>0.337564074602197</v>
+        <v>0.294018140290845</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.096346235383054</v>
+        <v>-1.106008833648688</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3853933380921544</v>
+        <v>-0.4006902619406048</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.522734198744358</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2362907588724969</v>
+        <v>0.1885515664440552</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.137683116932861</v>
+        <v>-1.146422964805041</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4063610887256942</v>
+        <v>-0.4250862054915983</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5263280632205394</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1734444488474228</v>
+        <v>0.1255081499267084</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.18700792158803</v>
+        <v>-1.194538849640937</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4245897891406893</v>
+        <v>-0.4412299572327757</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5246894003690125</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1185145195712558</v>
+        <v>0.07658339844844884</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.276653414321733</v>
+        <v>-1.278744203187915</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4869017215644907</v>
+        <v>-0.5009079629005779</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5171120816908324</v>
       </c>
       <c r="E72" t="n">
-        <v>0.03534142002455083</v>
+        <v>-0.01139763946161843</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.310844820514633</v>
+        <v>-1.314827831706632</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4814601223296741</v>
+        <v>-0.4946969183218523</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5029773991097685</v>
       </c>
       <c r="E73" t="n">
-        <v>0.02111617147482738</v>
+        <v>-0.02464319574234215</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.301380788789363</v>
+        <v>-1.305467463395816</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5309761932847517</v>
+        <v>-0.544642243415657</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.481991383087512</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0493505814568198</v>
+        <v>0.005759385654649687</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.34223585446917</v>
+        <v>-1.345951676860533</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5193001887017548</v>
+        <v>-0.528412348837116</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4533225693470068</v>
       </c>
       <c r="E75" t="n">
-        <v>0.05627850964818158</v>
+        <v>0.01090605517510285</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.393476242219611</v>
+        <v>-1.395258960938611</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4686701010533138</v>
+        <v>-0.479909551257129</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4163678193831701</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1047827672762595</v>
+        <v>0.06333638211963423</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.339324518575898</v>
+        <v>-1.341894203215898</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4791561664422201</v>
+        <v>-0.4904934398681262</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3720697764901965</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2183540680756835</v>
+        <v>0.1762667218071494</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.338503971548808</v>
+        <v>-1.340051622525171</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4249650215000528</v>
+        <v>-0.4357693773727772</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3221837172427823</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2995400421706617</v>
+        <v>0.2629278762430352</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.304549093146635</v>
+        <v>-1.305908397919271</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4295247516879607</v>
+        <v>-0.4361066484817771</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2680753859971977</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3893329997615467</v>
+        <v>0.356337372955101</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.311665367541724</v>
+        <v>-1.324226161267811</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.397248928590333</v>
+        <v>-0.4041155347618766</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2107124343826067</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4868948732441569</v>
+        <v>0.4612170074693456</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.331926454899264</v>
+        <v>-1.338368187076353</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3409713749262572</v>
+        <v>-0.3453383787661651</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1510291295869467</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5819965656935858</v>
+        <v>0.5615047907376822</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.281346008885914</v>
+        <v>-1.286054663979094</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2895528613087255</v>
+        <v>-0.2933110250947246</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.09092074137194141</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7130183612755506</v>
+        <v>0.6993055896057362</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.213745782276841</v>
+        <v>-1.222285603560566</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2573076992210069</v>
+        <v>-0.2602453159799152</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.03240402700234985</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8656182075930552</v>
+        <v>0.8561089143769668</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.160021852723764</v>
+        <v>-1.164822490846672</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2143822853482912</v>
+        <v>-0.2167957448425633</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.02272692199458608</v>
       </c>
       <c r="E84" t="n">
-        <v>1.032412641450374</v>
+        <v>1.026579749327194</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.06830163165288</v>
+        <v>-1.074658681040697</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1683236082724854</v>
+        <v>-0.1647362701131227</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.07320657498912832</v>
       </c>
       <c r="E85" t="n">
-        <v>1.122012872693259</v>
+        <v>1.123221792512531</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9946801667168998</v>
+        <v>-1.005163312009624</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1328488198076767</v>
+        <v>-0.1303857186783138</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1178902900406342</v>
       </c>
       <c r="E86" t="n">
-        <v>1.282342213604034</v>
+        <v>1.290079008437759</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9184787968042839</v>
+        <v>-0.928967782289372</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04899825794679016</v>
+        <v>-0.04517731209288209</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1556004795538601</v>
       </c>
       <c r="E87" t="n">
-        <v>1.383798035345098</v>
+        <v>1.387124024896188</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8177325584354019</v>
+        <v>-0.8288829457056717</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01884680482143462</v>
+        <v>-0.01588436724498087</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1835457188405028</v>
       </c>
       <c r="E88" t="n">
-        <v>1.470698637667893</v>
+        <v>1.474712309869801</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6916544856892539</v>
+        <v>-0.7002497888004334</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03140951051573371</v>
+        <v>0.03545530377564171</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.1993060822335359</v>
       </c>
       <c r="E89" t="n">
-        <v>1.567092472677776</v>
+        <v>1.57244938912332</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5573957634897445</v>
+        <v>-0.5693520973061958</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07857052390017559</v>
+        <v>0.08053136848626598</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2026470074054819</v>
       </c>
       <c r="E90" t="n">
-        <v>1.624932277799124</v>
+        <v>1.634078019040576</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4318433080563237</v>
+        <v>-0.4398648122677761</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0903560320899906</v>
+        <v>0.09420617890571685</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.195077606904062</v>
       </c>
       <c r="E91" t="n">
-        <v>1.665707040833931</v>
+        <v>1.679143863414564</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2698349118410036</v>
+        <v>-0.281405792961455</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1033431598586235</v>
+        <v>0.1091001294810765</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1779183770236967</v>
       </c>
       <c r="E92" t="n">
-        <v>1.695331416598469</v>
+        <v>1.709003306921738</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1133688581787729</v>
+        <v>-0.12049827300668</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1056047743514411</v>
+        <v>0.1040366827018051</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1532024842035831</v>
       </c>
       <c r="E93" t="n">
-        <v>1.690913311075379</v>
+        <v>1.704856770343557</v>
       </c>
       <c r="F93" t="n">
-        <v>0.04096114512645842</v>
+        <v>0.0386090076520045</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1002040564631698</v>
+        <v>0.0997879427572608</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1239491859682216</v>
       </c>
       <c r="E94" t="n">
-        <v>1.637863923740302</v>
+        <v>1.653639743362571</v>
       </c>
       <c r="F94" t="n">
-        <v>0.14697669705543</v>
+        <v>0.1500442580944291</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06128793464808932</v>
+        <v>0.06065865392090767</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.09325218202082459</v>
       </c>
       <c r="E95" t="n">
-        <v>1.544461727268691</v>
+        <v>1.564613311019413</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2307411160789529</v>
+        <v>0.2355490544423152</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01266833322082965</v>
+        <v>0.01176602350064807</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.06363061218972213</v>
       </c>
       <c r="E96" t="n">
-        <v>1.421937411575815</v>
+        <v>1.440748671179082</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3081966673016594</v>
+        <v>0.3150588933289303</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02544768224043284</v>
+        <v>-0.02891091631206828</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.03656440500906471</v>
       </c>
       <c r="E97" t="n">
-        <v>1.266513832250493</v>
+        <v>1.286881503118669</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3596341615443728</v>
+        <v>0.3639354632201899</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04594821748488188</v>
+        <v>-0.0498436257914263</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.01132700782920193</v>
       </c>
       <c r="E98" t="n">
-        <v>1.136230821002528</v>
+        <v>1.153089996308251</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3796660213516402</v>
+        <v>0.3826854008036394</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.082103388360054</v>
+        <v>-0.08727195860187079</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.01197200808128677</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9858079063885683</v>
+        <v>0.9976503564539287</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3754990441001868</v>
+        <v>0.3778205205647316</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1231307397145884</v>
+        <v>-0.1277255110566781</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.03534010765760817</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8805515794668693</v>
+        <v>0.8881774106456855</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3462206997331946</v>
+        <v>0.3468105591619217</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1366537051325848</v>
+        <v>-0.1423741735527651</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.05678033246754798</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7425930954049973</v>
+        <v>0.7461994141895417</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3495904907270119</v>
+        <v>0.3473770578211943</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1303229366104047</v>
+        <v>-0.1347060009793126</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.08207588950425269</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6269733471340283</v>
+        <v>0.6337494303239356</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3055583604013873</v>
+        <v>0.3046867116911149</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1946847765538419</v>
+        <v>-0.194668716024842</v>
       </c>
     </row>
   </sheetData>
